--- a/metadata-example.xlsx
+++ b/metadata-example.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,12 +645,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>"If other</t>
+          <t>test</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>specify"</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Why is the patient coming to you</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>لماذا يأتي المريض لك</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -774,96 +774,6 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -980,7 +890,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1034,7 +944,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>tes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1049,7 +959,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1062,7 +972,9 @@
           <t>Yes-no</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>

--- a/metadata-example.xlsx
+++ b/metadata-example.xlsx
@@ -595,7 +595,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Total number of beneficiaries in family consultation</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
